--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Pltp-Abca1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Pltp-Abca1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.956159440185</v>
+        <v>13.90784933333333</v>
       </c>
       <c r="H2">
-        <v>12.956159440185</v>
+        <v>41.72354799999999</v>
       </c>
       <c r="I2">
-        <v>0.1538925310770874</v>
+        <v>0.1207733168803041</v>
       </c>
       <c r="J2">
-        <v>0.1538925310770874</v>
+        <v>0.1207733168803041</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>59.172986096333</v>
+        <v>59.2774</v>
       </c>
       <c r="N2">
-        <v>59.172986096333</v>
+        <v>177.8322</v>
       </c>
       <c r="O2">
-        <v>0.230581383398288</v>
+        <v>0.2178217497979282</v>
       </c>
       <c r="P2">
-        <v>0.230581383398288</v>
+        <v>0.2178217497979282</v>
       </c>
       <c r="Q2">
-        <v>766.6546424159405</v>
+        <v>824.4211480717332</v>
       </c>
       <c r="R2">
-        <v>766.6546424159405</v>
+        <v>7419.790332645599</v>
       </c>
       <c r="S2">
-        <v>0.03548475271041886</v>
+        <v>0.0263070552117675</v>
       </c>
       <c r="T2">
-        <v>0.03548475271041886</v>
+        <v>0.0263070552117675</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.956159440185</v>
+        <v>13.90784933333333</v>
       </c>
       <c r="H3">
-        <v>12.956159440185</v>
+        <v>41.72354799999999</v>
       </c>
       <c r="I3">
-        <v>0.1538925310770874</v>
+        <v>0.1207733168803041</v>
       </c>
       <c r="J3">
-        <v>0.1538925310770874</v>
+        <v>0.1207733168803041</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.3189972245048</v>
+        <v>22.651558</v>
       </c>
       <c r="N3">
-        <v>22.3189972245048</v>
+        <v>67.954674</v>
       </c>
       <c r="O3">
-        <v>0.08697119404639594</v>
+        <v>0.08323580317640886</v>
       </c>
       <c r="P3">
-        <v>0.08697119404639594</v>
+        <v>0.08323580317640886</v>
       </c>
       <c r="Q3">
-        <v>289.1684865857306</v>
+        <v>315.0344558292613</v>
       </c>
       <c r="R3">
-        <v>289.1684865857306</v>
+        <v>2835.310102463352</v>
       </c>
       <c r="S3">
-        <v>0.01338421718259639</v>
+        <v>0.01005266403281105</v>
       </c>
       <c r="T3">
-        <v>0.01338421718259639</v>
+        <v>0.01005266403281105</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.956159440185</v>
+        <v>13.90784933333333</v>
       </c>
       <c r="H4">
-        <v>12.956159440185</v>
+        <v>41.72354799999999</v>
       </c>
       <c r="I4">
-        <v>0.1538925310770874</v>
+        <v>0.1207733168803041</v>
       </c>
       <c r="J4">
-        <v>0.1538925310770874</v>
+        <v>0.1207733168803041</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>97.7887017571997</v>
+        <v>97.82329266666666</v>
       </c>
       <c r="N4">
-        <v>97.7887017571997</v>
+        <v>293.469878</v>
       </c>
       <c r="O4">
-        <v>0.3810565533263673</v>
+        <v>0.3594631475005343</v>
       </c>
       <c r="P4">
-        <v>0.3810565533263673</v>
+        <v>0.3594631475005343</v>
       </c>
       <c r="Q4">
-        <v>1266.966011414979</v>
+        <v>1360.511615698571</v>
       </c>
       <c r="R4">
-        <v>1266.966011414979</v>
+        <v>12244.60454128714</v>
       </c>
       <c r="S4">
-        <v>0.0586417574749058</v>
+        <v>0.04341355661987352</v>
       </c>
       <c r="T4">
-        <v>0.0586417574749058</v>
+        <v>0.04341355661987352</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.956159440185</v>
+        <v>13.90784933333333</v>
       </c>
       <c r="H5">
-        <v>12.956159440185</v>
+        <v>41.72354799999999</v>
       </c>
       <c r="I5">
-        <v>0.1538925310770874</v>
+        <v>0.1207733168803041</v>
       </c>
       <c r="J5">
-        <v>0.1538925310770874</v>
+        <v>0.1207733168803041</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>74.4839716456011</v>
+        <v>89.109599</v>
       </c>
       <c r="N5">
-        <v>74.4839716456011</v>
+        <v>267.328797</v>
       </c>
       <c r="O5">
-        <v>0.2902442204806339</v>
+        <v>0.3274436594380272</v>
       </c>
       <c r="P5">
-        <v>0.2902442204806339</v>
+        <v>0.3274436594380272</v>
       </c>
       <c r="Q5">
-        <v>965.0262123786266</v>
+        <v>1239.322877045751</v>
       </c>
       <c r="R5">
-        <v>965.0262123786266</v>
+        <v>11153.90589341175</v>
       </c>
       <c r="S5">
-        <v>0.04466641772026098</v>
+        <v>0.03954645684175524</v>
       </c>
       <c r="T5">
-        <v>0.04466641772026098</v>
+        <v>0.03954645684175524</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.956159440185</v>
+        <v>13.90784933333333</v>
       </c>
       <c r="H6">
-        <v>12.956159440185</v>
+        <v>41.72354799999999</v>
       </c>
       <c r="I6">
-        <v>0.1538925310770874</v>
+        <v>0.1207733168803041</v>
       </c>
       <c r="J6">
-        <v>0.1538925310770874</v>
+        <v>0.1207733168803041</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.86051060013561</v>
+        <v>3.275345333333334</v>
       </c>
       <c r="N6">
-        <v>2.86051060013561</v>
+        <v>9.826036</v>
       </c>
       <c r="O6">
-        <v>0.01114664874831475</v>
+        <v>0.01203564008710141</v>
       </c>
       <c r="P6">
-        <v>0.01114664874831475</v>
+        <v>0.01203564008710141</v>
       </c>
       <c r="Q6">
-        <v>37.06123141569625</v>
+        <v>45.55300941063644</v>
       </c>
       <c r="R6">
-        <v>37.06123141569625</v>
+        <v>409.977084695728</v>
       </c>
       <c r="S6">
-        <v>0.001715385988905405</v>
+        <v>0.001453584174096789</v>
       </c>
       <c r="T6">
-        <v>0.001715385988905405</v>
+        <v>0.001453584174096789</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.32579381148644</v>
+        <v>2.346467666666667</v>
       </c>
       <c r="H7">
-        <v>2.32579381148644</v>
+        <v>7.039403</v>
       </c>
       <c r="I7">
-        <v>0.02762564771339089</v>
+        <v>0.0203763124163641</v>
       </c>
       <c r="J7">
-        <v>0.02762564771339089</v>
+        <v>0.0203763124163641</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.172986096333</v>
+        <v>59.2774</v>
       </c>
       <c r="N7">
-        <v>59.172986096333</v>
+        <v>177.8322</v>
       </c>
       <c r="O7">
-        <v>0.230581383398288</v>
+        <v>0.2178217497979282</v>
       </c>
       <c r="P7">
-        <v>0.230581383398288</v>
+        <v>0.2178217497979282</v>
       </c>
       <c r="Q7">
-        <v>137.6241648700244</v>
+        <v>139.0925024640667</v>
       </c>
       <c r="R7">
-        <v>137.6241648700244</v>
+        <v>1251.8325221766</v>
       </c>
       <c r="S7">
-        <v>0.006369960067027424</v>
+        <v>0.004438404024961679</v>
       </c>
       <c r="T7">
-        <v>0.006369960067027424</v>
+        <v>0.004438404024961679</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.32579381148644</v>
+        <v>2.346467666666667</v>
       </c>
       <c r="H8">
-        <v>2.32579381148644</v>
+        <v>7.039403</v>
       </c>
       <c r="I8">
-        <v>0.02762564771339089</v>
+        <v>0.0203763124163641</v>
       </c>
       <c r="J8">
-        <v>0.02762564771339089</v>
+        <v>0.0203763124163641</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.3189972245048</v>
+        <v>22.651558</v>
       </c>
       <c r="N8">
-        <v>22.3189972245048</v>
+        <v>67.954674</v>
       </c>
       <c r="O8">
-        <v>0.08697119404639594</v>
+        <v>0.08323580317640886</v>
       </c>
       <c r="P8">
-        <v>0.08697119404639594</v>
+        <v>0.08323580317640886</v>
       </c>
       <c r="Q8">
-        <v>51.90938562333628</v>
+        <v>53.15114844662467</v>
       </c>
       <c r="R8">
-        <v>51.90938562333628</v>
+        <v>478.360336019622</v>
       </c>
       <c r="S8">
-        <v>0.002402635567938694</v>
+        <v>0.001696038729749498</v>
       </c>
       <c r="T8">
-        <v>0.002402635567938694</v>
+        <v>0.001696038729749498</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.32579381148644</v>
+        <v>2.346467666666667</v>
       </c>
       <c r="H9">
-        <v>2.32579381148644</v>
+        <v>7.039403</v>
       </c>
       <c r="I9">
-        <v>0.02762564771339089</v>
+        <v>0.0203763124163641</v>
       </c>
       <c r="J9">
-        <v>0.02762564771339089</v>
+        <v>0.0203763124163641</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>97.7887017571997</v>
+        <v>97.82329266666666</v>
       </c>
       <c r="N9">
-        <v>97.7887017571997</v>
+        <v>293.469878</v>
       </c>
       <c r="O9">
-        <v>0.3810565533263673</v>
+        <v>0.3594631475005343</v>
       </c>
       <c r="P9">
-        <v>0.3810565533263673</v>
+        <v>0.3594631475005343</v>
       </c>
       <c r="Q9">
-        <v>227.4363573801882</v>
+        <v>229.5391932892038</v>
       </c>
       <c r="R9">
-        <v>227.4363573801882</v>
+        <v>2065.852739602834</v>
       </c>
       <c r="S9">
-        <v>0.01052693410107317</v>
+        <v>0.007324533395640456</v>
       </c>
       <c r="T9">
-        <v>0.01052693410107317</v>
+        <v>0.007324533395640456</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.32579381148644</v>
+        <v>2.346467666666667</v>
       </c>
       <c r="H10">
-        <v>2.32579381148644</v>
+        <v>7.039403</v>
       </c>
       <c r="I10">
-        <v>0.02762564771339089</v>
+        <v>0.0203763124163641</v>
       </c>
       <c r="J10">
-        <v>0.02762564771339089</v>
+        <v>0.0203763124163641</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>74.4839716456011</v>
+        <v>89.109599</v>
       </c>
       <c r="N10">
-        <v>74.4839716456011</v>
+        <v>267.328797</v>
       </c>
       <c r="O10">
-        <v>0.2902442204806339</v>
+        <v>0.3274436594380272</v>
       </c>
       <c r="P10">
-        <v>0.2902442204806339</v>
+        <v>0.3274436594380272</v>
       </c>
       <c r="Q10">
-        <v>173.2343603082705</v>
+        <v>209.0927928431323</v>
       </c>
       <c r="R10">
-        <v>173.2343603082705</v>
+        <v>1881.835135588191</v>
       </c>
       <c r="S10">
-        <v>0.008018184585845746</v>
+        <v>0.006672094303466771</v>
       </c>
       <c r="T10">
-        <v>0.008018184585845746</v>
+        <v>0.006672094303466771</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.32579381148644</v>
+        <v>2.346467666666667</v>
       </c>
       <c r="H11">
-        <v>2.32579381148644</v>
+        <v>7.039403</v>
       </c>
       <c r="I11">
-        <v>0.02762564771339089</v>
+        <v>0.0203763124163641</v>
       </c>
       <c r="J11">
-        <v>0.02762564771339089</v>
+        <v>0.0203763124163641</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.86051060013561</v>
+        <v>3.275345333333334</v>
       </c>
       <c r="N11">
-        <v>2.86051060013561</v>
+        <v>9.826036</v>
       </c>
       <c r="O11">
-        <v>0.01114664874831475</v>
+        <v>0.01203564008710141</v>
       </c>
       <c r="P11">
-        <v>0.01114664874831475</v>
+        <v>0.01203564008710141</v>
       </c>
       <c r="Q11">
-        <v>6.652957851486764</v>
+        <v>7.685491921834223</v>
       </c>
       <c r="R11">
-        <v>6.652957851486764</v>
+        <v>69.169427296508</v>
       </c>
       <c r="S11">
-        <v>0.0003079333915058527</v>
+        <v>0.000245241962545694</v>
       </c>
       <c r="T11">
-        <v>0.0003079333915058527</v>
+        <v>0.000245241962545694</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.5033668109951</v>
+        <v>26.76359833333333</v>
       </c>
       <c r="H12">
-        <v>26.5033668109951</v>
+        <v>80.290795</v>
       </c>
       <c r="I12">
-        <v>0.3148054961378488</v>
+        <v>0.2324103795560852</v>
       </c>
       <c r="J12">
-        <v>0.3148054961378488</v>
+        <v>0.2324103795560852</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>59.172986096333</v>
+        <v>59.2774</v>
       </c>
       <c r="N12">
-        <v>59.172986096333</v>
+        <v>177.8322</v>
       </c>
       <c r="O12">
-        <v>0.230581383398288</v>
+        <v>0.2178217497979282</v>
       </c>
       <c r="P12">
-        <v>0.230581383398288</v>
+        <v>0.2178217497979282</v>
       </c>
       <c r="Q12">
-        <v>1568.283355813026</v>
+        <v>1586.476523844333</v>
       </c>
       <c r="R12">
-        <v>1568.283355813026</v>
+        <v>14278.288714599</v>
       </c>
       <c r="S12">
-        <v>0.07258828680084958</v>
+        <v>0.05062403554610711</v>
       </c>
       <c r="T12">
-        <v>0.07258828680084958</v>
+        <v>0.05062403554610712</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.5033668109951</v>
+        <v>26.76359833333333</v>
       </c>
       <c r="H13">
-        <v>26.5033668109951</v>
+        <v>80.290795</v>
       </c>
       <c r="I13">
-        <v>0.3148054961378488</v>
+        <v>0.2324103795560852</v>
       </c>
       <c r="J13">
-        <v>0.3148054961378488</v>
+        <v>0.2324103795560852</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.3189972245048</v>
+        <v>22.651558</v>
       </c>
       <c r="N13">
-        <v>22.3189972245048</v>
+        <v>67.954674</v>
       </c>
       <c r="O13">
-        <v>0.08697119404639594</v>
+        <v>0.08323580317640886</v>
       </c>
       <c r="P13">
-        <v>0.08697119404639594</v>
+        <v>0.08323580317640886</v>
       </c>
       <c r="Q13">
-        <v>591.5285702946322</v>
+        <v>606.2371999362033</v>
       </c>
       <c r="R13">
-        <v>591.5285702946322</v>
+        <v>5456.13479942583</v>
       </c>
       <c r="S13">
-        <v>0.02737900989147679</v>
+        <v>0.01934486460888478</v>
       </c>
       <c r="T13">
-        <v>0.02737900989147679</v>
+        <v>0.01934486460888478</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26.5033668109951</v>
+        <v>26.76359833333333</v>
       </c>
       <c r="H14">
-        <v>26.5033668109951</v>
+        <v>80.290795</v>
       </c>
       <c r="I14">
-        <v>0.3148054961378488</v>
+        <v>0.2324103795560852</v>
       </c>
       <c r="J14">
-        <v>0.3148054961378488</v>
+        <v>0.2324103795560852</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>97.7887017571997</v>
+        <v>97.82329266666666</v>
       </c>
       <c r="N14">
-        <v>97.7887017571997</v>
+        <v>293.469878</v>
       </c>
       <c r="O14">
-        <v>0.3810565533263673</v>
+        <v>0.3594631475005343</v>
       </c>
       <c r="P14">
-        <v>0.3810565533263673</v>
+        <v>0.3594631475005343</v>
       </c>
       <c r="Q14">
-        <v>2591.729832642065</v>
+        <v>2618.103312574779</v>
       </c>
       <c r="R14">
-        <v>2591.729832642065</v>
+        <v>23562.92981317301</v>
       </c>
       <c r="S14">
-        <v>0.1199586973264857</v>
+        <v>0.08354296654702419</v>
       </c>
       <c r="T14">
-        <v>0.1199586973264857</v>
+        <v>0.0835429665470242</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>26.5033668109951</v>
+        <v>26.76359833333333</v>
       </c>
       <c r="H15">
-        <v>26.5033668109951</v>
+        <v>80.290795</v>
       </c>
       <c r="I15">
-        <v>0.3148054961378488</v>
+        <v>0.2324103795560852</v>
       </c>
       <c r="J15">
-        <v>0.3148054961378488</v>
+        <v>0.2324103795560852</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>74.4839716456011</v>
+        <v>89.109599</v>
       </c>
       <c r="N15">
-        <v>74.4839716456011</v>
+        <v>267.328797</v>
       </c>
       <c r="O15">
-        <v>0.2902442204806339</v>
+        <v>0.3274436594380272</v>
       </c>
       <c r="P15">
-        <v>0.2902442204806339</v>
+        <v>0.3274436594380272</v>
       </c>
       <c r="Q15">
-        <v>1974.076022063124</v>
+        <v>2384.893515280402</v>
       </c>
       <c r="R15">
-        <v>1974.076022063124</v>
+        <v>21464.04163752362</v>
       </c>
       <c r="S15">
-        <v>0.09137047582954912</v>
+        <v>0.07610130517322537</v>
       </c>
       <c r="T15">
-        <v>0.09137047582954912</v>
+        <v>0.07610130517322539</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>26.5033668109951</v>
+        <v>26.76359833333333</v>
       </c>
       <c r="H16">
-        <v>26.5033668109951</v>
+        <v>80.290795</v>
       </c>
       <c r="I16">
-        <v>0.3148054961378488</v>
+        <v>0.2324103795560852</v>
       </c>
       <c r="J16">
-        <v>0.3148054961378488</v>
+        <v>0.2324103795560852</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.86051060013561</v>
+        <v>3.275345333333334</v>
       </c>
       <c r="N16">
-        <v>2.86051060013561</v>
+        <v>9.826036</v>
       </c>
       <c r="O16">
-        <v>0.01114664874831475</v>
+        <v>0.01203564008710141</v>
       </c>
       <c r="P16">
-        <v>0.01114664874831475</v>
+        <v>0.01203564008710141</v>
       </c>
       <c r="Q16">
-        <v>75.81316170213381</v>
+        <v>87.66002690429112</v>
       </c>
       <c r="R16">
-        <v>75.81316170213381</v>
+        <v>788.9402421386201</v>
       </c>
       <c r="S16">
-        <v>0.003509026289487554</v>
+        <v>0.002797207680843672</v>
       </c>
       <c r="T16">
-        <v>0.003509026289487554</v>
+        <v>0.002797207680843673</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.8220075160893</v>
+        <v>71.50851433333334</v>
       </c>
       <c r="H17">
-        <v>41.8220075160893</v>
+        <v>214.525543</v>
       </c>
       <c r="I17">
-        <v>0.4967594464308365</v>
+        <v>0.6209673583765769</v>
       </c>
       <c r="J17">
-        <v>0.4967594464308365</v>
+        <v>0.6209673583765769</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>59.172986096333</v>
+        <v>59.2774</v>
       </c>
       <c r="N17">
-        <v>59.172986096333</v>
+        <v>177.8322</v>
       </c>
       <c r="O17">
-        <v>0.230581383398288</v>
+        <v>0.2178217497979282</v>
       </c>
       <c r="P17">
-        <v>0.230581383398288</v>
+        <v>0.2178217497979282</v>
       </c>
       <c r="Q17">
-        <v>2474.733069270286</v>
+        <v>4238.838807542734</v>
       </c>
       <c r="R17">
-        <v>2474.733069270286</v>
+        <v>38149.5492678846</v>
       </c>
       <c r="S17">
-        <v>0.11454348037419</v>
+        <v>0.1352601965689832</v>
       </c>
       <c r="T17">
-        <v>0.11454348037419</v>
+        <v>0.1352601965689832</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>41.8220075160893</v>
+        <v>71.50851433333334</v>
       </c>
       <c r="H18">
-        <v>41.8220075160893</v>
+        <v>214.525543</v>
       </c>
       <c r="I18">
-        <v>0.4967594464308365</v>
+        <v>0.6209673583765769</v>
       </c>
       <c r="J18">
-        <v>0.4967594464308365</v>
+        <v>0.6209673583765769</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>22.3189972245048</v>
+        <v>22.651558</v>
       </c>
       <c r="N18">
-        <v>22.3189972245048</v>
+        <v>67.954674</v>
       </c>
       <c r="O18">
-        <v>0.08697119404639594</v>
+        <v>0.08323580317640886</v>
       </c>
       <c r="P18">
-        <v>0.08697119404639594</v>
+        <v>0.08323580317640886</v>
       </c>
       <c r="Q18">
-        <v>933.4252696748159</v>
+        <v>1619.779259915331</v>
       </c>
       <c r="R18">
-        <v>933.4252696748159</v>
+        <v>14578.01333923798</v>
       </c>
       <c r="S18">
-        <v>0.04320376220991651</v>
+        <v>0.0516867168208073</v>
       </c>
       <c r="T18">
-        <v>0.04320376220991651</v>
+        <v>0.0516867168208073</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>41.8220075160893</v>
+        <v>71.50851433333334</v>
       </c>
       <c r="H19">
-        <v>41.8220075160893</v>
+        <v>214.525543</v>
       </c>
       <c r="I19">
-        <v>0.4967594464308365</v>
+        <v>0.6209673583765769</v>
       </c>
       <c r="J19">
-        <v>0.4967594464308365</v>
+        <v>0.6209673583765769</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>97.7887017571997</v>
+        <v>97.82329266666666</v>
       </c>
       <c r="N19">
-        <v>97.7887017571997</v>
+        <v>293.469878</v>
       </c>
       <c r="O19">
-        <v>0.3810565533263673</v>
+        <v>0.3594631475005343</v>
       </c>
       <c r="P19">
-        <v>0.3810565533263673</v>
+        <v>0.3594631475005343</v>
       </c>
       <c r="Q19">
-        <v>4089.719819878221</v>
+        <v>6995.198325788195</v>
       </c>
       <c r="R19">
-        <v>4089.719819878221</v>
+        <v>62956.78493209375</v>
       </c>
       <c r="S19">
-        <v>0.1892934424892488</v>
+        <v>0.2232148811371366</v>
       </c>
       <c r="T19">
-        <v>0.1892934424892488</v>
+        <v>0.2232148811371366</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>41.8220075160893</v>
+        <v>71.50851433333334</v>
       </c>
       <c r="H20">
-        <v>41.8220075160893</v>
+        <v>214.525543</v>
       </c>
       <c r="I20">
-        <v>0.4967594464308365</v>
+        <v>0.6209673583765769</v>
       </c>
       <c r="J20">
-        <v>0.4967594464308365</v>
+        <v>0.6209673583765769</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>74.4839716456011</v>
+        <v>89.109599</v>
       </c>
       <c r="N20">
-        <v>74.4839716456011</v>
+        <v>267.328797</v>
       </c>
       <c r="O20">
-        <v>0.2902442204806339</v>
+        <v>0.3274436594380272</v>
       </c>
       <c r="P20">
-        <v>0.2902442204806339</v>
+        <v>0.3274436594380272</v>
       </c>
       <c r="Q20">
-        <v>3115.069221990512</v>
+        <v>6372.095037329086</v>
       </c>
       <c r="R20">
-        <v>3115.069221990512</v>
+        <v>57348.85533596177</v>
       </c>
       <c r="S20">
-        <v>0.1441815582957094</v>
+        <v>0.2033318242183912</v>
       </c>
       <c r="T20">
-        <v>0.1441815582957094</v>
+        <v>0.2033318242183912</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>41.8220075160893</v>
+        <v>71.50851433333334</v>
       </c>
       <c r="H21">
-        <v>41.8220075160893</v>
+        <v>214.525543</v>
       </c>
       <c r="I21">
-        <v>0.4967594464308365</v>
+        <v>0.6209673583765769</v>
       </c>
       <c r="J21">
-        <v>0.4967594464308365</v>
+        <v>0.6209673583765769</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.86051060013561</v>
+        <v>3.275345333333334</v>
       </c>
       <c r="N21">
-        <v>2.86051060013561</v>
+        <v>9.826036</v>
       </c>
       <c r="O21">
-        <v>0.01114664874831475</v>
+        <v>0.01203564008710141</v>
       </c>
       <c r="P21">
-        <v>0.01114664874831475</v>
+        <v>0.01203564008710141</v>
       </c>
       <c r="Q21">
-        <v>119.6322958187246</v>
+        <v>234.2150787152831</v>
       </c>
       <c r="R21">
-        <v>119.6322958187246</v>
+        <v>2107.935708437548</v>
       </c>
       <c r="S21">
-        <v>0.00553720306177181</v>
+        <v>0.007473739631258597</v>
       </c>
       <c r="T21">
-        <v>0.00553720306177181</v>
+        <v>0.007473739631258597</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.582329641808262</v>
+        <v>0.6302099999999999</v>
       </c>
       <c r="H22">
-        <v>0.582329641808262</v>
+        <v>1.89063</v>
       </c>
       <c r="I22">
-        <v>0.006916878640836449</v>
+        <v>0.005472632770669679</v>
       </c>
       <c r="J22">
-        <v>0.006916878640836449</v>
+        <v>0.00547263277066968</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>59.172986096333</v>
+        <v>59.2774</v>
       </c>
       <c r="N22">
-        <v>59.172986096333</v>
+        <v>177.8322</v>
       </c>
       <c r="O22">
-        <v>0.230581383398288</v>
+        <v>0.2178217497979282</v>
       </c>
       <c r="P22">
-        <v>0.230581383398288</v>
+        <v>0.2178217497979282</v>
       </c>
       <c r="Q22">
-        <v>34.45818379820286</v>
+        <v>37.35721025399999</v>
       </c>
       <c r="R22">
-        <v>34.45818379820286</v>
+        <v>336.214892286</v>
       </c>
       <c r="S22">
-        <v>0.001594903445802139</v>
+        <v>0.001192058446108753</v>
       </c>
       <c r="T22">
-        <v>0.001594903445802139</v>
+        <v>0.001192058446108754</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.582329641808262</v>
+        <v>0.6302099999999999</v>
       </c>
       <c r="H23">
-        <v>0.582329641808262</v>
+        <v>1.89063</v>
       </c>
       <c r="I23">
-        <v>0.006916878640836449</v>
+        <v>0.005472632770669679</v>
       </c>
       <c r="J23">
-        <v>0.006916878640836449</v>
+        <v>0.00547263277066968</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.3189972245048</v>
+        <v>22.651558</v>
       </c>
       <c r="N23">
-        <v>22.3189972245048</v>
+        <v>67.954674</v>
       </c>
       <c r="O23">
-        <v>0.08697119404639594</v>
+        <v>0.08323580317640886</v>
       </c>
       <c r="P23">
-        <v>0.08697119404639594</v>
+        <v>0.08323580317640886</v>
       </c>
       <c r="Q23">
-        <v>12.99701365926547</v>
+        <v>14.27523836718</v>
       </c>
       <c r="R23">
-        <v>12.99701365926547</v>
+        <v>128.47714530462</v>
       </c>
       <c r="S23">
-        <v>0.0006015691944675583</v>
+        <v>0.0004555189841562265</v>
       </c>
       <c r="T23">
-        <v>0.0006015691944675583</v>
+        <v>0.0004555189841562265</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.582329641808262</v>
+        <v>0.6302099999999999</v>
       </c>
       <c r="H24">
-        <v>0.582329641808262</v>
+        <v>1.89063</v>
       </c>
       <c r="I24">
-        <v>0.006916878640836449</v>
+        <v>0.005472632770669679</v>
       </c>
       <c r="J24">
-        <v>0.006916878640836449</v>
+        <v>0.00547263277066968</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>97.7887017571997</v>
+        <v>97.82329266666666</v>
       </c>
       <c r="N24">
-        <v>97.7887017571997</v>
+        <v>293.469878</v>
       </c>
       <c r="O24">
-        <v>0.3810565533263673</v>
+        <v>0.3594631475005343</v>
       </c>
       <c r="P24">
-        <v>0.3810565533263673</v>
+        <v>0.3594631475005343</v>
       </c>
       <c r="Q24">
-        <v>56.94525966716506</v>
+        <v>61.64921727145999</v>
       </c>
       <c r="R24">
-        <v>56.94525966716506</v>
+        <v>554.8429554431399</v>
       </c>
       <c r="S24">
-        <v>0.002635721934653905</v>
+        <v>0.001967209800859492</v>
       </c>
       <c r="T24">
-        <v>0.002635721934653905</v>
+        <v>0.001967209800859493</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.582329641808262</v>
+        <v>0.6302099999999999</v>
       </c>
       <c r="H25">
-        <v>0.582329641808262</v>
+        <v>1.89063</v>
       </c>
       <c r="I25">
-        <v>0.006916878640836449</v>
+        <v>0.005472632770669679</v>
       </c>
       <c r="J25">
-        <v>0.006916878640836449</v>
+        <v>0.00547263277066968</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>74.4839716456011</v>
+        <v>89.109599</v>
       </c>
       <c r="N25">
-        <v>74.4839716456011</v>
+        <v>267.328797</v>
       </c>
       <c r="O25">
-        <v>0.2902442204806339</v>
+        <v>0.3274436594380272</v>
       </c>
       <c r="P25">
-        <v>0.2902442204806339</v>
+        <v>0.3274436594380272</v>
       </c>
       <c r="Q25">
-        <v>43.37422452883963</v>
+        <v>56.15776038579</v>
       </c>
       <c r="R25">
-        <v>43.37422452883963</v>
+        <v>505.41984347211</v>
       </c>
       <c r="S25">
-        <v>0.002007584049268722</v>
+        <v>0.001791978901188549</v>
       </c>
       <c r="T25">
-        <v>0.002007584049268722</v>
+        <v>0.00179197890118855</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.582329641808262</v>
+        <v>0.6302099999999999</v>
       </c>
       <c r="H26">
-        <v>0.582329641808262</v>
+        <v>1.89063</v>
       </c>
       <c r="I26">
-        <v>0.006916878640836449</v>
+        <v>0.005472632770669679</v>
       </c>
       <c r="J26">
-        <v>0.006916878640836449</v>
+        <v>0.00547263277066968</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.86051060013561</v>
+        <v>3.275345333333334</v>
       </c>
       <c r="N26">
-        <v>2.86051060013561</v>
+        <v>9.826036</v>
       </c>
       <c r="O26">
-        <v>0.01114664874831475</v>
+        <v>0.01203564008710141</v>
       </c>
       <c r="P26">
-        <v>0.01114664874831475</v>
+        <v>0.01203564008710141</v>
       </c>
       <c r="Q26">
-        <v>1.665760113165706</v>
+        <v>2.06415538252</v>
       </c>
       <c r="R26">
-        <v>1.665760113165706</v>
+        <v>18.57739844268</v>
       </c>
       <c r="S26">
-        <v>7.710001664412461E-05</v>
+        <v>6.586663835665684E-05</v>
       </c>
       <c r="T26">
-        <v>7.710001664412461E-05</v>
+        <v>6.586663835665685E-05</v>
       </c>
     </row>
   </sheetData>
